--- a/corr_total.xlsx
+++ b/corr_total.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UG\DataspellProjects\analiz_samokatov\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E793B7-C97A-45A9-BC95-040CAFFE599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>distance</t>
   </si>
@@ -58,18 +51,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -83,11 +75,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -102,15 +94,18 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -118,19 +113,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -176,13 +168,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -210,13 +202,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -413,17 +405,228 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="R6" activeCellId="0" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="11.421875"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" ht="42.75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,91 +661,91 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-6.3171880154003568E-3</v>
+        <v>-6.3171880154003568e-003</v>
       </c>
       <c r="D2">
         <v>0.71055823710059829</v>
       </c>
       <c r="E2">
-        <v>-1.070395553257924E-2</v>
+        <v>-1.070395553257924e-002</v>
       </c>
       <c r="F2">
         <v>0.59428684318182567</v>
       </c>
       <c r="G2">
-        <v>-5.0221092501150178E-5</v>
+        <v>-5.0221092501150178e-005</v>
       </c>
       <c r="H2">
-        <v>9.7490352423154538E-3</v>
+        <v>9.7490352423154538e-003</v>
       </c>
       <c r="I2">
-        <v>-2.7912725016763199E-3</v>
+        <v>-2.7912725016763199e-003</v>
       </c>
       <c r="J2">
-        <v>-3.8059051248260849E-3</v>
+        <v>-3.8059051248260849e-003</v>
       </c>
       <c r="K2">
-        <v>4.7563592945749182E-3</v>
+        <v>4.7563592945749182e-003</v>
       </c>
       <c r="L2">
-        <v>-4.4930735398454342E-3</v>
+        <v>-4.4930735398454342e-003</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-6.3171880154003568E-3</v>
+        <v>-6.3171880154003568e-003</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-2.2922265149158311E-2</v>
+        <v>-2.2922265149158311e-002</v>
       </c>
       <c r="E3">
-        <v>3.2710503121458019E-2</v>
+        <v>3.2710503121458019e-002</v>
       </c>
       <c r="F3">
         <v>-0.16987681260800311</v>
       </c>
       <c r="G3">
-        <v>1.75352495845932E-2</v>
+        <v>1.75352495845932e-002</v>
       </c>
       <c r="H3">
-        <v>-3.2778731427606692E-2</v>
+        <v>-3.2778731427606692e-002</v>
       </c>
       <c r="I3">
-        <v>7.5063729090411244E-3</v>
+        <v>7.5063729090411244e-003</v>
       </c>
       <c r="J3">
-        <v>-1.7603125387116971E-2</v>
+        <v>-1.7603125387116971e-002</v>
       </c>
       <c r="K3">
-        <v>-3.010413284601977E-2</v>
+        <v>-3.010413284601977e-002</v>
       </c>
       <c r="L3">
-        <v>8.1495168913443439E-2</v>
+        <v>8.1495168913443439e-002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.71055823710059796</v>
       </c>
       <c r="C4">
-        <v>-2.2922265149158311E-2</v>
+        <v>-2.2922265149158311e-002</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -554,33 +757,33 @@
         <v>0.85264560819655888</v>
       </c>
       <c r="G4">
-        <v>-1.01692345338621E-3</v>
+        <v>-1.01692345338621e-003</v>
       </c>
       <c r="H4">
-        <v>4.3714579558756959E-3</v>
+        <v>4.3714579558756959e-003</v>
       </c>
       <c r="I4">
-        <v>-5.6592765625255769E-3</v>
+        <v>-5.6592765625255769e-003</v>
       </c>
       <c r="J4">
-        <v>-2.0340375489621979E-2</v>
+        <v>-2.0340375489621979e-002</v>
       </c>
       <c r="K4">
-        <v>-5.121853308109321E-4</v>
+        <v>-5.121853308109321e-004</v>
       </c>
       <c r="L4">
-        <v>-2.3459961894402449E-2</v>
+        <v>-2.3459961894402449e-002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.070395553257924E-2</v>
+        <v>-1.070395553257924e-002</v>
       </c>
       <c r="C5">
-        <v>3.2710503121458019E-2</v>
+        <v>3.2710503121458019e-002</v>
       </c>
       <c r="D5">
         <v>-0.63846280143999989</v>
@@ -592,26 +795,26 @@
         <v>-0.57401075749006625</v>
       </c>
       <c r="G5">
-        <v>2.7056485207943631E-3</v>
+        <v>2.7056485207943631e-003</v>
       </c>
       <c r="H5">
-        <v>3.2253132696683502E-3</v>
+        <v>3.2253132696683502e-003</v>
       </c>
       <c r="I5">
-        <v>6.4600526269686862E-3</v>
+        <v>6.4600526269686862e-003</v>
       </c>
       <c r="J5">
-        <v>2.9356224594014151E-2</v>
+        <v>2.9356224594014151e-002</v>
       </c>
       <c r="K5">
-        <v>4.7178108411475459E-3</v>
+        <v>4.7178108411475459e-003</v>
       </c>
       <c r="L5">
-        <v>3.619636921424451E-2</v>
+        <v>3.619636921424451e-002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -630,42 +833,42 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-5.5351742180406076E-3</v>
+        <v>-5.5351742180406076e-003</v>
       </c>
       <c r="H6">
-        <v>5.2447183771117428E-2</v>
+        <v>5.2447183771117428e-002</v>
       </c>
       <c r="I6">
-        <v>-3.4227581199589292E-3</v>
+        <v>-3.4227581199589292e-003</v>
       </c>
       <c r="J6">
-        <v>-4.414864730908262E-2</v>
+        <v>-4.414864730908262e-002</v>
       </c>
       <c r="K6">
-        <v>1.517237586325247E-2</v>
+        <v>1.517237586325247e-002</v>
       </c>
       <c r="L6">
         <v>-0.10607337709648861</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.0221092501150178E-5</v>
+        <v>-5.0221092501150178e-005</v>
       </c>
       <c r="C7">
-        <v>1.75352495845932E-2</v>
+        <v>1.75352495845932e-002</v>
       </c>
       <c r="D7">
-        <v>-1.01692345338621E-3</v>
+        <v>-1.01692345338621e-003</v>
       </c>
       <c r="E7">
-        <v>2.7056485207943631E-3</v>
+        <v>2.7056485207943631e-003</v>
       </c>
       <c r="F7">
-        <v>-5.5351742180406076E-3</v>
+        <v>-5.5351742180406076e-003</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -674,7 +877,7 @@
         <v>0.55394374146047209</v>
       </c>
       <c r="I7">
-        <v>1.156318192379832E-2</v>
+        <v>1.156318192379832e-002</v>
       </c>
       <c r="J7">
         <v>0.1143250604810265</v>
@@ -686,24 +889,24 @@
         <v>0.15270516611731841</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.7490352423154538E-3</v>
+        <v>9.7490352423154538e-003</v>
       </c>
       <c r="C8">
-        <v>-3.2778731427606692E-2</v>
+        <v>-3.2778731427606692e-002</v>
       </c>
       <c r="D8">
-        <v>4.3714579558756959E-3</v>
+        <v>4.3714579558756959e-003</v>
       </c>
       <c r="E8">
-        <v>3.2253132696683502E-3</v>
+        <v>3.2253132696683502e-003</v>
       </c>
       <c r="F8">
-        <v>5.2447183771117428E-2</v>
+        <v>5.2447183771117428e-002</v>
       </c>
       <c r="G8">
         <v>0.55394374146047209</v>
@@ -712,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-8.6309971873305177E-2</v>
+        <v>-8.6309971873305177e-002</v>
       </c>
       <c r="J8">
         <v>0.17447065661995939</v>
@@ -724,30 +927,30 @@
         <v>0.56713069015860618</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.7912725016763199E-3</v>
+        <v>-2.7912725016763199e-003</v>
       </c>
       <c r="C9">
-        <v>7.5063729090411244E-3</v>
+        <v>7.5063729090411244e-003</v>
       </c>
       <c r="D9">
-        <v>-5.6592765625255769E-3</v>
+        <v>-5.6592765625255769e-003</v>
       </c>
       <c r="E9">
-        <v>6.4600526269686862E-3</v>
+        <v>6.4600526269686862e-003</v>
       </c>
       <c r="F9">
-        <v>-3.4227581199589292E-3</v>
+        <v>-3.4227581199589292e-003</v>
       </c>
       <c r="G9">
-        <v>1.156318192379832E-2</v>
+        <v>1.156318192379832e-002</v>
       </c>
       <c r="H9">
-        <v>-8.6309971873305177E-2</v>
+        <v>-8.6309971873305177e-002</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -762,24 +965,24 @@
         <v>-0.11664136026156791</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.8059051248260849E-3</v>
+        <v>-3.8059051248260849e-003</v>
       </c>
       <c r="C10">
-        <v>-1.7603125387116971E-2</v>
+        <v>-1.7603125387116971e-002</v>
       </c>
       <c r="D10">
-        <v>-2.0340375489621979E-2</v>
+        <v>-2.0340375489621979e-002</v>
       </c>
       <c r="E10">
-        <v>2.9356224594014151E-2</v>
+        <v>2.9356224594014151e-002</v>
       </c>
       <c r="F10">
-        <v>-4.414864730908262E-2</v>
+        <v>-4.414864730908262e-002</v>
       </c>
       <c r="G10">
         <v>0.1143250604810265</v>
@@ -800,24 +1003,24 @@
         <v>0.18654309334762581</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.7563592945749182E-3</v>
+        <v>4.7563592945749182e-003</v>
       </c>
       <c r="C11">
-        <v>-3.010413284601977E-2</v>
+        <v>-3.010413284601977e-002</v>
       </c>
       <c r="D11">
-        <v>-5.121853308109321E-4</v>
+        <v>-5.121853308109321e-004</v>
       </c>
       <c r="E11">
-        <v>4.7178108411475459E-3</v>
+        <v>4.7178108411475459e-003</v>
       </c>
       <c r="F11">
-        <v>1.517237586325247E-2</v>
+        <v>1.517237586325247e-002</v>
       </c>
       <c r="G11">
         <v>-0.19682824374898689</v>
@@ -838,21 +1041,21 @@
         <v>-0.61403863421127869</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-4.4930735398454342E-3</v>
+        <v>-4.4930735398454342e-003</v>
       </c>
       <c r="C12">
-        <v>8.1495168913443439E-2</v>
+        <v>8.1495168913443439e-002</v>
       </c>
       <c r="D12">
-        <v>-2.3459961894402449E-2</v>
+        <v>-2.3459961894402449e-002</v>
       </c>
       <c r="E12">
-        <v>3.619636921424451E-2</v>
+        <v>3.619636921424451e-002</v>
       </c>
       <c r="F12">
         <v>-0.10607337709648861</v>
@@ -889,6 +1092,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>